--- a/06-01-25 to 06-07-25 Madison Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Madison Schedule.xlsx
@@ -784,7 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #083, 
+          <t>FOX BROS PIGGLY WIGGLY #083, 
 BEAVER DAM</t>
         </is>
       </c>
@@ -793,7 +793,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #167, CAMBRIDGE</t>
+          <t>MIKE DAY PIGGLY WIGGLY #167, CAMBRIDGE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #084, 
+          <t>FOX BROS PIGGLY WIGGLY #084, 
 WEST BEND</t>
         </is>
       </c>

--- a/06-01-25 to 06-07-25 Madison Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,12 +1475,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -1553,22 +1553,9 @@
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1689,7 +1676,11 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1726,7 +1717,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1774,7 +1765,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #876, GLENDALE - GREEN TREE</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1825,7 +1816,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>METRO #876, GLENDALE - GREEN TREE</t>
+          <t>6969 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1877,7 +1868,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6969 N PORT WASHINGTON RD</t>
+          <t>https://goo.gl/maps/ho2n746veYC2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1933,7 +1924,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ho2n746veYC2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1984,7 +1975,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>*IL Meet is 4:15 am at IL office</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2038,11 +2029,7 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2090,9 +2077,21 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2144,19 +2143,15 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2234,12 +2229,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2305,15 +2300,20 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2372,18 +2372,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2432,12 +2431,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2495,12 +2494,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2562,12 +2561,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2617,12 +2616,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2672,12 +2671,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2727,12 +2726,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2774,12 +2773,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2817,12 +2816,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2866,21 +2865,9 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2973,7 +2960,11 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3022,7 +3013,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3073,7 +3064,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3124,7 +3115,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3167,7 +3158,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3210,7 +3201,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3251,11 +3242,7 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3293,9 +3280,21 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3322,19 +3321,15 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3361,12 +3356,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3396,12 +3391,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3431,12 +3426,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3466,12 +3461,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3486,41 +3481,6 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-01-25 to 06-07-25 Madison Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Madison Schedule.xlsx
@@ -784,8 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, 
-BEAVER DAM</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1832,8 +1831,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #084, 
-WEST BEND</t>
+          <t>FOX BROS PIGGLY WIGGLY #084, WEST BEND</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>

--- a/06-01-25 to 06-07-25 Madison Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Madison Schedule.xlsx
@@ -1405,12 +1405,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store, Until 8:45</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 8:45</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1682,9 +1682,21 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1770,11 +1782,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1823,7 +1831,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1874,7 +1882,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1930,7 +1938,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>550 SOUTH ROCK DR</t>
+          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1981,7 +1989,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
+          <t>550 SOUTH ROCK DR</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2033,7 +2041,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2092,7 +2100,11 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2151,21 +2163,9 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2239,15 +2239,19 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2315,12 +2319,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2386,12 +2390,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2445,12 +2449,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2508,12 +2512,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2575,12 +2579,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2630,12 +2634,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2685,12 +2689,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2738,8 +2742,16 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>

--- a/06-01-25 to 06-07-25 Madison Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Madison Schedule.xlsx
@@ -2522,21 +2522,9 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
